--- a/Suividevosfrais/excel/jsonarraymaj.xlsx
+++ b/Suividevosfrais/excel/jsonarraymaj.xlsx
@@ -24,10 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
-  <si>
-    <t>FicheFrais</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="26">
   <si>
     <t>Index</t>
   </si>
@@ -99,12 +96,18 @@
   </si>
   <si>
     <t>Clé mysql du frais HF</t>
+  </si>
+  <si>
+    <t>N° Index</t>
+  </si>
+  <si>
+    <t>Fiche Frais</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -122,7 +125,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -130,24 +133,212 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD7D7D7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2" xr9:uid="{DB24AD44-8AAD-4875-B62A-60815E37C378}">
+      <tableStyleElement type="wholeTable" dxfId="1"/>
+      <tableStyleElement type="headerRow" dxfId="0"/>
+    </tableStyle>
+  </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -456,10 +647,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00889962-1803-43C9-A839-C03A5B36D380}">
-  <dimension ref="A1:D14"/>
+  <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="C14" sqref="C14:D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -469,175 +660,198 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" s="2"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2" s="14"/>
+      <c r="C2" s="14"/>
+      <c r="D2" s="15"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="4">
+        <v>0</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="15"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="11">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D1" s="1"/>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
+      <c r="B4" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C4" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="1"/>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3">
+      <c r="D4" s="17"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="11">
+        <v>2</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="9"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="11">
+        <v>3</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="8"/>
+      <c r="D6" s="9"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="11">
+        <v>4</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="8"/>
+      <c r="D7" s="9"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="11">
+        <v>5</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="8"/>
+      <c r="D8" s="9"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="11">
+        <v>6</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="D9" s="15"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="5">
+        <v>7</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D10" s="7"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="4">
+        <v>1</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D12" s="6"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="10">
+        <v>2</v>
+      </c>
+      <c r="B13" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="C13" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="D13" s="12"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="10">
+        <v>3</v>
+      </c>
+      <c r="B14" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="C14" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="D14" s="12"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="10">
         <v>4</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3" s="1"/>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
+      <c r="B15" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C15" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="D15" s="12"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="5">
         <v>5</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4" s="2"/>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>3</v>
-      </c>
-      <c r="B5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>4</v>
-      </c>
-      <c r="B6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>5</v>
-      </c>
-      <c r="B7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>6</v>
-      </c>
-      <c r="B8" t="s">
+      <c r="B16" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D8" s="1"/>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>7</v>
-      </c>
-      <c r="B9" t="s">
-        <v>10</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D9" s="1"/>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>2</v>
-      </c>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>1</v>
-      </c>
-      <c r="B11" t="s">
-        <v>17</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D11" s="1"/>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>2</v>
-      </c>
-      <c r="B12" t="s">
-        <v>18</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D12" s="1"/>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>3</v>
-      </c>
-      <c r="B13" t="s">
-        <v>19</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D13" s="1"/>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>4</v>
-      </c>
-      <c r="B14" t="s">
-        <v>20</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D14" s="1"/>
+      <c r="C16" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D16" s="7"/>
     </row>
   </sheetData>
-  <mergeCells count="11">
-    <mergeCell ref="C13:D13"/>
+  <mergeCells count="13">
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="A2:D2"/>
     <mergeCell ref="C14:D14"/>
-    <mergeCell ref="C4:D7"/>
-    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C5:D8"/>
     <mergeCell ref="C9:D9"/>
     <mergeCell ref="C10:D10"/>
-    <mergeCell ref="C11:D11"/>
     <mergeCell ref="C12:D12"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C13:D13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
